--- a/US/data/BOC/HOUS/SHIP/shipment.xlsx
+++ b/US/data/BOC/HOUS/SHIP/shipment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC Construction Indicator Programs\CEB\MHS\_Monthly Files for Review\202111 - April 7, 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC Construction Indicator Programs\CEB\MHS\_Monthly Files for Review\202201- June 8, 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783FE902-8B79-43D9-9EA3-4EEFF219D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0C77F2-4359-49AF-B9C0-27240B3134DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4620" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Period</t>
   </si>
@@ -158,6 +158,140 @@
     </r>
   </si>
   <si>
+    <t>Shipments of New Manufactured Homes,  2017 - 2022</t>
+  </si>
+  <si>
+    <r>
+      <t>January</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>February</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>April</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>March</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -173,52 +307,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  With this release, seasonally adjusted estimates of shipments of new manufactured homes have been revised back to January 2016. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>December</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-  </si>
-  <si>
-    <t>Shipments of New Manufactured Homes,  2017 - 2022</t>
-  </si>
-  <si>
-    <r>
-      <t>January</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>February</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>p</t>
+      <t xml:space="preserve">  With this release, seasonally adjusted estimates of shipments of new manufactured homes have been revised back to January 2017. </t>
     </r>
   </si>
 </sst>
@@ -229,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -291,6 +380,13 @@
       <family val="2"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="9.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <vertAlign val="superscript"/>
       <sz val="9.5"/>
       <name val="Arial"/>
@@ -1045,7 +1141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1159,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1122,8 +1218,8 @@
       <c r="C4" s="15"/>
       <c r="D4" s="14"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="13">
-        <v>2021</v>
+      <c r="F4" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -1140,16 +1236,16 @@
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14">
         <v>9.1</v>
       </c>
       <c r="C5" s="15">
-        <v>96.101744134585999</v>
+        <v>94.579230817099699</v>
       </c>
       <c r="D5" s="14">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="18" t="s">
@@ -1159,10 +1255,10 @@
         <v>8.5</v>
       </c>
       <c r="H5" s="15">
-        <v>96.417737044686206</v>
+        <v>94.978986826671601</v>
       </c>
       <c r="I5" s="14">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="18"/>
@@ -1176,16 +1272,16 @@
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="15">
         <v>9.3000000000000007</v>
       </c>
       <c r="C6" s="15">
-        <v>96.5748884160231</v>
+        <v>95.474203148487504</v>
       </c>
       <c r="D6" s="14">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="18" t="s">
@@ -1195,10 +1291,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="15">
-        <v>93.9168451372812</v>
+        <v>95.580372114073697</v>
       </c>
       <c r="I6" s="14">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="18"/>
@@ -1212,10 +1308,17 @@
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="15">
+        <v>11.3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>113.66682882636201</v>
+      </c>
+      <c r="D7" s="14">
+        <v>119</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="18" t="s">
         <v>1</v>
@@ -1224,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="H7" s="15">
-        <v>110.808909071233</v>
+        <v>110.18078266993901</v>
       </c>
       <c r="I7" s="14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="18"/>
@@ -1241,10 +1344,17 @@
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C8" s="15">
+        <v>101.55984099257201</v>
+      </c>
+      <c r="D8" s="14">
+        <v>120</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="18" t="s">
         <v>16</v>
@@ -1253,10 +1363,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H8" s="15">
-        <v>105.02005397810501</v>
+        <v>108.307821515424</v>
       </c>
       <c r="I8" s="14">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="18"/>
@@ -1282,7 +1392,7 @@
         <v>8.6</v>
       </c>
       <c r="H9" s="15">
-        <v>98.139794120145595</v>
+        <v>98.485938244603503</v>
       </c>
       <c r="I9" s="14">
         <v>105</v>
@@ -1311,10 +1421,10 @@
         <v>9.4</v>
       </c>
       <c r="H10" s="15">
-        <v>107.151695968963</v>
+        <v>108.06057439879899</v>
       </c>
       <c r="I10" s="14">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10"/>
@@ -1341,7 +1451,7 @@
         <v>7.6</v>
       </c>
       <c r="H11" s="15">
-        <v>87.516103318309803</v>
+        <v>87.285667900729607</v>
       </c>
       <c r="I11" s="14">
         <v>104</v>
@@ -1371,7 +1481,7 @@
         <v>9.1</v>
       </c>
       <c r="H12" s="15">
-        <v>103.545277161554</v>
+        <v>103.84890578974399</v>
       </c>
       <c r="I12" s="14">
         <v>105</v>
@@ -1399,10 +1509,10 @@
         <v>9</v>
       </c>
       <c r="H13" s="15">
-        <v>102.55040800902799</v>
+        <v>102.851281623457</v>
       </c>
       <c r="I13" s="14">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="18"/>
@@ -1427,10 +1537,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="H14" s="15">
-        <v>103.933377656305</v>
+        <v>102.85207350207099</v>
       </c>
       <c r="I14" s="14">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14"/>
       <c r="L14" s="18"/>
@@ -1455,10 +1565,10 @@
         <v>9.1</v>
       </c>
       <c r="H15" s="15">
-        <v>99.081815858268698</v>
+        <v>97.9515015938631</v>
       </c>
       <c r="I15" s="14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="18"/>
@@ -1477,13 +1587,13 @@
       <c r="C16" s="15"/>
       <c r="E16" s="12"/>
       <c r="F16" s="18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G16" s="15">
         <v>8</v>
       </c>
       <c r="H16" s="15">
-        <v>87.893216723899798</v>
+        <v>88.299769033283098</v>
       </c>
       <c r="I16" s="14">
         <v>109</v>
@@ -1502,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="38">
-        <v>18.399999999999999</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
@@ -1537,15 +1647,15 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>2020</v>
+      <c r="A19" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="14"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="13">
-        <v>2019</v>
+      <c r="F19" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
@@ -1559,10 +1669,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="C20" s="15">
-        <v>106.96522787455301</v>
+        <v>105.25307438917</v>
       </c>
       <c r="D20" s="14">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="18" t="s">
@@ -1572,10 +1682,10 @@
         <v>7.6</v>
       </c>
       <c r="H20" s="15">
-        <v>103.93459905047699</v>
+        <v>103.07912468541201</v>
       </c>
       <c r="I20" s="14">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -1589,7 +1699,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C21" s="15">
-        <v>94.798430069149902</v>
+        <v>95.235352557210689</v>
       </c>
       <c r="D21" s="14">
         <v>104</v>
@@ -1602,7 +1712,7 @@
         <v>7.2</v>
       </c>
       <c r="H21" s="15">
-        <v>95.729303953600095</v>
+        <v>95.762961998676005</v>
       </c>
       <c r="I21" s="14">
         <v>90</v>
@@ -1619,7 +1729,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C22" s="15">
-        <v>104.14945048735601</v>
+        <v>104.17365943231</v>
       </c>
       <c r="D22" s="14">
         <v>96</v>
@@ -1632,7 +1742,7 @@
         <v>7.6</v>
       </c>
       <c r="H22" s="15">
-        <v>100.336240058908</v>
+        <v>100.53951836962899</v>
       </c>
       <c r="I22" s="14">
         <v>91</v>
@@ -1649,10 +1759,10 @@
         <v>6.6</v>
       </c>
       <c r="C23" s="15">
-        <v>106.04694260085901</v>
+        <v>109.215418585539</v>
       </c>
       <c r="D23" s="14">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="18" t="s">
@@ -1662,10 +1772,10 @@
         <v>8</v>
       </c>
       <c r="H23" s="15">
-        <v>101.999112286691</v>
+        <v>103.826033605492</v>
       </c>
       <c r="I23" s="14">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1676,10 +1786,10 @@
         <v>6.6</v>
       </c>
       <c r="C24" s="15">
-        <v>97.425774639786994</v>
+        <v>99.343052912743104</v>
       </c>
       <c r="D24" s="14">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="18" t="s">
@@ -1689,10 +1799,10 @@
         <v>8.6</v>
       </c>
       <c r="H24" s="15">
-        <v>109.537430303337</v>
+        <v>110.49889470324401</v>
       </c>
       <c r="I24" s="14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1703,10 +1813,10 @@
         <v>7.6</v>
       </c>
       <c r="C25" s="15">
-        <v>104.09681621557401</v>
+        <v>105.269745420734</v>
       </c>
       <c r="D25" s="14">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="18" t="s">
@@ -1716,10 +1826,10 @@
         <v>7.8</v>
       </c>
       <c r="H25" s="15">
-        <v>97.449458621948807</v>
+        <v>98.654611396308994</v>
       </c>
       <c r="I25" s="14">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,10 +1840,10 @@
         <v>7.5</v>
       </c>
       <c r="C26" s="15">
-        <v>95.768920290599297</v>
+        <v>92.890157702435104</v>
       </c>
       <c r="D26" s="14">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="18" t="s">
@@ -1743,10 +1853,10 @@
         <v>7.1</v>
       </c>
       <c r="H26" s="15">
-        <v>90.036321702416799</v>
+        <v>89.436295583260701</v>
       </c>
       <c r="I26" s="14">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,7 +1867,7 @@
         <v>7.9</v>
       </c>
       <c r="C27" s="15">
-        <v>100.466950080389</v>
+        <v>100.210191337618</v>
       </c>
       <c r="D27" s="14">
         <v>95</v>
@@ -1770,10 +1880,10 @@
         <v>8.6</v>
       </c>
       <c r="H27" s="15">
-        <v>108.03602444409499</v>
+        <v>106.89168630158099</v>
       </c>
       <c r="I27" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1784,7 +1894,7 @@
         <v>8.1</v>
       </c>
       <c r="C28" s="15">
-        <v>101.49368462410899</v>
+        <v>101.777939810559</v>
       </c>
       <c r="D28" s="14">
         <v>96</v>
@@ -1797,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="15">
-        <v>98.233527415133707</v>
+        <v>97.909665520220202</v>
       </c>
       <c r="I28" s="14">
         <v>98</v>
@@ -1811,10 +1921,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="15">
-        <v>110.16305817539201</v>
+        <v>108.23420707189599</v>
       </c>
       <c r="D29" s="14">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="18" t="s">
@@ -1824,7 +1934,7 @@
         <v>9.4</v>
       </c>
       <c r="H29" s="15">
-        <v>114.479833669096</v>
+        <v>114.36887626882799</v>
       </c>
       <c r="I29" s="14">
         <v>99</v>
@@ -1838,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="15">
-        <v>95.410517592173704</v>
+        <v>95.467456349836496</v>
       </c>
       <c r="D30" s="14">
         <v>101</v>
@@ -1851,10 +1961,10 @@
         <v>8</v>
       </c>
       <c r="H30" s="15">
-        <v>96.201497411942611</v>
+        <v>95.710503908151907</v>
       </c>
       <c r="I30" s="14">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1865,10 +1975,10 @@
         <v>7.6</v>
       </c>
       <c r="C31" s="15">
-        <v>89.010477612034705</v>
+        <v>87.73108992842819</v>
       </c>
       <c r="D31" s="14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="18" t="s">
@@ -1878,10 +1988,10 @@
         <v>6.7</v>
       </c>
       <c r="H31" s="15">
-        <v>83.077956004097004</v>
+        <v>82.072613207190599</v>
       </c>
       <c r="I31" s="14">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1915,15 +2025,15 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <v>2018</v>
+      <c r="A34" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="13">
-        <v>2017</v>
+      <c r="F34" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1937,7 +2047,7 @@
         <v>8.6</v>
       </c>
       <c r="C35" s="15">
-        <v>100.38523429133599</v>
+        <v>100.159365996517</v>
       </c>
       <c r="D35" s="14">
         <v>103</v>
@@ -1950,10 +2060,10 @@
         <v>7.8</v>
       </c>
       <c r="H35" s="15">
-        <v>94.428145509847511</v>
+        <v>94.086268545918799</v>
       </c>
       <c r="I35" s="29">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,10 +2074,10 @@
         <v>8.1</v>
       </c>
       <c r="C36" s="15">
-        <v>95.610214500838495</v>
+        <v>95.155715274903798</v>
       </c>
       <c r="D36" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
@@ -1977,10 +2087,10 @@
         <v>7.3</v>
       </c>
       <c r="H36" s="15">
-        <v>94.406854395270798</v>
+        <v>93.675655178804391</v>
       </c>
       <c r="I36" s="14">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,10 +2101,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C37" s="15">
-        <v>105.811288727171</v>
+        <v>104.67076651309499</v>
       </c>
       <c r="D37" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="18" t="s">
@@ -2004,7 +2114,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H37" s="15">
-        <v>110.91616467016401</v>
+        <v>110.81985590577</v>
       </c>
       <c r="I37" s="14">
         <v>89</v>
@@ -2018,10 +2128,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C38" s="15">
-        <v>99.979970383081692</v>
+        <v>100.94804904225201</v>
       </c>
       <c r="D38" s="14">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="18" t="s">
@@ -2031,7 +2141,7 @@
         <v>7.2</v>
       </c>
       <c r="H38" s="15">
-        <v>96.543513903719003</v>
+        <v>97.148389401014597</v>
       </c>
       <c r="I38" s="14">
         <v>89</v>
@@ -2045,10 +2155,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C39" s="15">
-        <v>108.04525102160001</v>
+        <v>109.038776529686</v>
       </c>
       <c r="D39" s="14">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="18" t="s">
@@ -2058,10 +2168,10 @@
         <v>7.9</v>
       </c>
       <c r="H39" s="15">
-        <v>106.01020095575599</v>
+        <v>107.070276140761</v>
       </c>
       <c r="I39" s="14">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,7 +2182,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C40" s="15">
-        <v>101.849599560729</v>
+        <v>102.51054488488801</v>
       </c>
       <c r="D40" s="14">
         <v>97</v>
@@ -2085,10 +2195,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H40" s="15">
-        <v>109.24104635337999</v>
+        <v>109.94874336106899</v>
       </c>
       <c r="I40" s="19">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2209,7 @@
         <v>6.8</v>
       </c>
       <c r="C41" s="15">
-        <v>85.445798895994898</v>
+        <v>85.417733839333494</v>
       </c>
       <c r="D41" s="14">
         <v>95</v>
@@ -2112,10 +2222,10 @@
         <v>5.8</v>
       </c>
       <c r="H41" s="15">
-        <v>83.477099510532611</v>
+        <v>82.669523496062197</v>
       </c>
       <c r="I41" s="19">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2126,10 +2236,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C42" s="15">
-        <v>113.57993743685999</v>
+        <v>113.97171271606801</v>
       </c>
       <c r="D42" s="14">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="18" t="s">
@@ -2139,10 +2249,10 @@
         <v>8.4</v>
       </c>
       <c r="H42" s="15">
-        <v>111.541563160959</v>
+        <v>112.71698003382301</v>
       </c>
       <c r="I42" s="19">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2153,10 +2263,10 @@
         <v>7.5</v>
       </c>
       <c r="C43" s="15">
-        <v>94.416105647581404</v>
+        <v>94.941987413751306</v>
       </c>
       <c r="D43" s="14">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="18" t="s">
@@ -2166,7 +2276,7 @@
         <v>7.6</v>
       </c>
       <c r="H43" s="15">
-        <v>98.349505867075109</v>
+        <v>98.727455826751495</v>
       </c>
       <c r="I43" s="14">
         <v>92</v>
@@ -2180,10 +2290,10 @@
         <v>8.6</v>
       </c>
       <c r="C44" s="15">
-        <v>111.33488128825799</v>
+        <v>112.071536293553</v>
       </c>
       <c r="D44" s="14">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="18" t="s">
@@ -2193,10 +2303,10 @@
         <v>8.6</v>
       </c>
       <c r="H44" s="28">
-        <v>106.04863530156501</v>
+        <v>107.243953696273</v>
       </c>
       <c r="I44" s="19">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="16" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2207,10 +2317,10 @@
         <v>7.7</v>
       </c>
       <c r="C45" s="15">
-        <v>102.970932100266</v>
+        <v>102.22772947117799</v>
       </c>
       <c r="D45" s="14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="18" t="s">
@@ -2220,7 +2330,7 @@
         <v>8.6</v>
       </c>
       <c r="H45" s="28">
-        <v>102.90687864611101</v>
+        <v>103.444901440675</v>
       </c>
       <c r="I45" s="19">
         <v>100</v>
@@ -2234,10 +2344,10 @@
         <v>5.9</v>
       </c>
       <c r="C46" s="15">
-        <v>81.750697850862792</v>
+        <v>79.401613395503006</v>
       </c>
       <c r="D46" s="14">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
@@ -2247,10 +2357,10 @@
         <v>7.2</v>
       </c>
       <c r="H46" s="15">
-        <v>83.818611663547699</v>
+        <v>80.76961764181209</v>
       </c>
       <c r="I46" s="19">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="16" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2308,7 +2418,7 @@
     </row>
     <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
